--- a/parameters/UFSC.xlsx
+++ b/parameters/UFSC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Desktop\TIA\parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534F841-2FBF-4C78-9EC0-7027C5A5B01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE821861-A3E5-4010-9A59-D1CE2BF051D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Front</t>
   </si>
@@ -99,10 +99,13 @@
     <t>3.91</t>
   </si>
   <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>15.8</t>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>15.83</t>
+  </si>
+  <si>
+    <t>7.16</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1"/>
@@ -268,6 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -556,7 +562,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -646,10 +652,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="11">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C6" s="8">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -680,10 +686,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C8" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -693,6 +699,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="14"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/parameters/UFSC.xlsx
+++ b/parameters/UFSC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Desktop\TIA\parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE821861-A3E5-4010-9A59-D1CE2BF051D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8D30C-978F-43C1-8739-40D112C24790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -99,13 +99,13 @@
     <t>3.91</t>
   </si>
   <si>
-    <t>3.07</t>
-  </si>
-  <si>
     <t>15.83</t>
   </si>
   <si>
     <t>7.16</t>
+  </si>
+  <si>
+    <t>3.08</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1"/>
@@ -271,9 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -562,7 +559,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,10 +615,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -635,10 +632,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -699,7 +696,6 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
